--- a/kelly risk demonstration.xlsx
+++ b/kelly risk demonstration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\norax\Desktop\Projects\Monte-Carlo-Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737F6E62-9C24-429A-A1DF-8F28D82EB9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F45FD27-EE08-40F1-B7EE-94BA563BD43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="4035" windowWidth="19800" windowHeight="10605" xr2:uid="{76CC209C-33FD-42C1-B08B-638FC71C7AF6}"/>
+    <workbookView xWindow="4230" yWindow="5535" windowWidth="19800" windowHeight="10605" xr2:uid="{76CC209C-33FD-42C1-B08B-638FC71C7AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C42B65F-C4A0-43C0-A853-E2491AB7EF67}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +543,7 @@
         <f>I3/(100+(100*((1/D3)-1)))</f>
         <v>0.5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D4" si="0">IF(E3&gt;0,100/(100+E3), -E3/(100-E3))</f>
         <v>0.47619047619047616</v>
       </c>
@@ -585,7 +585,7 @@
         <f>I4/(100+(100*((1/D4)-1)))</f>
         <v>9.1304347826086957E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>8.6956521739130432E-2</v>
       </c>
@@ -627,7 +627,7 @@
         <f t="shared" ref="C5" si="2">I5/(100+(100*((1/D5)-1)))</f>
         <v>0.94499999999999995</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <f>IF(E5&gt;0,100/(100+E5), -E5/(100-E5))</f>
         <v>0.9</v>
       </c>
@@ -656,6 +656,47 @@
       <c r="K5" s="3">
         <f>C5-(1-C5)/F5</f>
         <v>0.44999999999999973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="3">
+        <f>IF(E6&gt;0,100/(100+E6), -E6/(100-E6))</f>
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>900</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" ref="F6" si="3">(1/D6)-1</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="2">
+        <f>F6*B6</f>
+        <v>900</v>
+      </c>
+      <c r="H6" s="2">
+        <f>G6+B6</f>
+        <v>1000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>105</v>
+      </c>
+      <c r="J6" s="2">
+        <f>(I6/B6)-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="K6" s="3">
+        <f>C6-(1-C6)/F6</f>
+        <v>0.11111111111111112</v>
       </c>
     </row>
   </sheetData>
